--- a/biology/Médecine/Chirurgie_viscérale/Chirurgie_viscérale.xlsx
+++ b/biology/Médecine/Chirurgie_viscérale/Chirurgie_viscérale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chirurgie_visc%C3%A9rale</t>
+          <t>Chirurgie_viscérale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>La chirurgie viscérale  est une des branches essentielles de la chirurgie traitant essentiellement les affections des organes abdomino-pelviens. Elle est également désignée sous les termes de chirurgie générale et chirurgie digestive. Ainsi, les chirurgiens viscéraux traitent les affections de l'appareil digestif, mais aussi de la paroi abdominale ou encore d'autres organes intra-abdominaux non digestifs tels que la rate ou des glandes endocrines comme la thyroïde.
 La chirurgie viscérale en France connaît actuellement une crise de vocations, alors que nombreux sont les chirurgiens exerçants qui atteignent l'âge de la retraite[réf. souhaitée].
